--- a/xlsx/FR/gender_FR.xlsx
+++ b/xlsx/FR/gender_FR.xlsx
@@ -12,30 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
   </si>
 </sst>
 </file>
@@ -374,67 +365,29 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.447317032019221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.00053326398883553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.552149703991944</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/gender_FR.xlsx
+++ b/xlsx/FR/gender_FR.xlsx
@@ -371,7 +371,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.447317032019221</v>
+        <v>0.430086764115659</v>
       </c>
     </row>
     <row r="3">
@@ -379,7 +379,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00053326398883553</v>
+        <v>0.000424760746686389</v>
       </c>
     </row>
     <row r="4">
@@ -387,7 +387,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.552149703991944</v>
+        <v>0.569488475137655</v>
       </c>
     </row>
   </sheetData>
